--- a/lote83.xlsx
+++ b/lote83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,57 +459,23 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C2" t="n">
-        <v>145</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 145</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ricardo</t>
+          <t>Ricardo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>696</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>camila</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
         <v>500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2991</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>droga</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
